--- a/okapi_annotation_scores.xlsx
+++ b/okapi_annotation_scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofuszwergius/Documents/GitHub/ProjectsinDataScience2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke0\OneDrive\Documents\GitHub\ProjectsinDataScience2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149ABA08-6C5E-7A4B-BB94-B4EE36E5DDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97B6B4-30ED-452B-A127-48488F21E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18760" yWindow="500" windowWidth="10040" windowHeight="16340" xr2:uid="{9C4BEEDA-5338-44B3-A977-4AE6DB12A241}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{9C4BEEDA-5338-44B3-A977-4AE6DB12A241}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="173">
   <si>
     <t>image_id</t>
   </si>
@@ -507,6 +507,54 @@
   </si>
   <si>
     <t>0,4,2,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0</t>
+  </si>
+  <si>
+    <t>0,4,0,0</t>
+  </si>
+  <si>
+    <t>0,2,0,0</t>
+  </si>
+  <si>
+    <t>N/A (too much hair in the way)</t>
+  </si>
+  <si>
+    <t>0,2,1,0</t>
+  </si>
+  <si>
+    <t>1,2,1,0</t>
+  </si>
+  <si>
+    <t>2,2,0,0</t>
+  </si>
+  <si>
+    <t>n/a (curved skin),2,0,0</t>
+  </si>
+  <si>
+    <t>2,4,1,1</t>
+  </si>
+  <si>
+    <t>2,4,1,0</t>
+  </si>
+  <si>
+    <t>0,2,1,1</t>
+  </si>
+  <si>
+    <t>0,4,1,0</t>
+  </si>
+  <si>
+    <t>0,1,1,0</t>
+  </si>
+  <si>
+    <t>N/A (too much hair to see)</t>
+  </si>
+  <si>
+    <t>2,2,0,1</t>
+  </si>
+  <si>
+    <t>2,2,2,0</t>
   </si>
 </sst>
 </file>
@@ -562,7 +610,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -880,20 +928,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8887C438-770E-4A0F-9D3E-5C85B6160971}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +958,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -927,7 +975,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -941,7 +989,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -955,7 +1003,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -969,7 +1017,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -983,7 +1031,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -997,7 +1045,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1059,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1073,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1053,7 +1101,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -1067,7 +1115,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1129,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1143,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1109,7 +1157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1123,7 +1171,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1185,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1199,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1165,7 +1213,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1179,7 +1227,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1193,7 +1241,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -1207,7 +1255,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1221,7 +1269,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1235,7 +1283,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1249,7 +1297,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1263,7 +1311,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1277,7 +1325,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1291,7 +1339,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1305,7 +1353,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1322,7 +1370,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1384,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1350,7 +1398,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +1412,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1378,7 +1426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1392,7 +1440,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1406,7 +1454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1420,7 +1468,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1434,7 +1482,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1448,7 +1496,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1462,7 +1510,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1476,7 +1524,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1490,7 +1538,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1504,7 +1552,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1518,7 +1566,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1532,7 +1580,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1546,7 +1594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1560,7 +1608,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1574,7 +1622,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1588,7 +1636,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1602,7 +1650,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1616,7 +1664,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1630,7 +1678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1644,7 +1692,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1658,7 +1706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1672,7 +1720,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1686,7 +1734,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1700,7 +1748,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1708,7 +1756,7 @@
         <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
         <v>115</v>
@@ -1717,304 +1765,385 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>116</v>
       </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
       <c r="D59" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>116</v>
       </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
       <c r="D60" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>116</v>
       </c>
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
       <c r="D61" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>116</v>
       </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
       <c r="D62" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>116</v>
       </c>
+      <c r="C63" t="s">
+        <v>121</v>
+      </c>
       <c r="D63" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>116</v>
       </c>
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
       <c r="D64" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>116</v>
       </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
       <c r="D65" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>116</v>
       </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
       <c r="D66" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>116</v>
       </c>
+      <c r="C67" t="s">
+        <v>161</v>
+      </c>
       <c r="D67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>116</v>
       </c>
+      <c r="C68" t="s">
+        <v>159</v>
+      </c>
       <c r="D68" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>116</v>
       </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
       <c r="D69" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>116</v>
       </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
       <c r="D70" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>116</v>
       </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
       <c r="D71" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>116</v>
       </c>
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
       <c r="D72" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>116</v>
       </c>
+      <c r="C73" t="s">
+        <v>126</v>
+      </c>
       <c r="D73" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>116</v>
       </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
       <c r="D74" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>116</v>
       </c>
+      <c r="C75" t="s">
+        <v>128</v>
+      </c>
       <c r="D75" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>116</v>
       </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
       <c r="D76" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>116</v>
       </c>
+      <c r="C77" t="s">
+        <v>163</v>
+      </c>
       <c r="D77" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>116</v>
       </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
       <c r="D78" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>116</v>
       </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
       <c r="D79" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>116</v>
       </c>
+      <c r="C80" t="s">
+        <v>139</v>
+      </c>
       <c r="D80" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>116</v>
       </c>
+      <c r="C81" t="s">
+        <v>139</v>
+      </c>
       <c r="D81" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>116</v>
       </c>
+      <c r="C82" t="s">
+        <v>128</v>
+      </c>
       <c r="D82" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>116</v>
       </c>
+      <c r="C83" t="s">
+        <v>128</v>
+      </c>
       <c r="D83" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>116</v>
       </c>
+      <c r="C84" t="s">
+        <v>164</v>
+      </c>
       <c r="D84" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>116</v>
       </c>
+      <c r="C85" t="s">
+        <v>153</v>
+      </c>
       <c r="D85" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2028,10 +2157,10 @@
         <v>116</v>
       </c>
       <c r="E86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2041,8 +2170,11 @@
       <c r="D87" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2052,8 +2184,11 @@
       <c r="D88" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2063,8 +2198,11 @@
       <c r="D89" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2074,8 +2212,11 @@
       <c r="D90" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2085,8 +2226,11 @@
       <c r="D91" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2096,8 +2240,11 @@
       <c r="D92" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2107,8 +2254,11 @@
       <c r="D93" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2118,8 +2268,11 @@
       <c r="D94" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2129,8 +2282,11 @@
       <c r="D95" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2140,8 +2296,11 @@
       <c r="D96" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2151,8 +2310,11 @@
       <c r="D97" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2162,8 +2324,11 @@
       <c r="D98" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2173,8 +2338,11 @@
       <c r="D99" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2184,8 +2352,11 @@
       <c r="D100" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2195,8 +2366,11 @@
       <c r="D101" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2206,8 +2380,11 @@
       <c r="D102" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2217,8 +2394,11 @@
       <c r="D103" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2228,8 +2408,11 @@
       <c r="D104" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2239,8 +2422,11 @@
       <c r="D105" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2250,8 +2436,11 @@
       <c r="D106" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2261,8 +2450,11 @@
       <c r="D107" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2272,8 +2464,11 @@
       <c r="D108" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2283,8 +2478,11 @@
       <c r="D109" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2294,8 +2492,11 @@
       <c r="D110" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2305,8 +2506,11 @@
       <c r="D111" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2316,8 +2520,11 @@
       <c r="D112" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2327,8 +2534,11 @@
       <c r="D113" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2337,6 +2547,9 @@
       </c>
       <c r="D114" t="s">
         <v>116</v>
+      </c>
+      <c r="E114" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/okapi_annotation_scores.xlsx
+++ b/okapi_annotation_scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke0\OneDrive\Documents\GitHub\ProjectsinDataScience2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ituniversity-my.sharepoint.com/personal/thkn_itu_dk/Documents/ITU/2. semester/Projects in Data Science/Final assignment/ProjectsinDataScience2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97B6B4-30ED-452B-A127-48488F21E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{CA97B6B4-30ED-452B-A127-48488F21E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{100173E8-0174-43C3-8EF3-BB03D71562F8}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{9C4BEEDA-5338-44B3-A977-4AE6DB12A241}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C4BEEDA-5338-44B3-A977-4AE6DB12A241}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="180">
   <si>
     <t>image_id</t>
   </si>
@@ -555,6 +555,27 @@
   </si>
   <si>
     <t>2,2,2,0</t>
+  </si>
+  <si>
+    <t>1,5,0,0</t>
+  </si>
+  <si>
+    <t>2,5,0,0</t>
+  </si>
+  <si>
+    <t>2,3,1,0</t>
+  </si>
+  <si>
+    <t>1,3,1,0</t>
+  </si>
+  <si>
+    <t>2,3,2,0</t>
+  </si>
+  <si>
+    <t>1,2,2,0</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -610,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -928,20 +949,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8887C438-770E-4A0F-9D3E-5C85B6160971}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -958,7 +979,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -972,10 +993,10 @@
         <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -988,8 +1009,11 @@
       <c r="D3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1002,8 +1026,11 @@
       <c r="D4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1043,11 @@
       <c r="D5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -1030,8 +1060,11 @@
       <c r="D6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1077,11 @@
       <c r="D7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1094,11 @@
       <c r="D8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1072,8 +1111,11 @@
       <c r="D9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1086,8 +1128,11 @@
       <c r="D10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1100,8 +1145,11 @@
       <c r="D11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -1114,8 +1162,11 @@
       <c r="D12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1128,8 +1179,11 @@
       <c r="D13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1142,8 +1196,11 @@
       <c r="D14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1156,8 +1213,11 @@
       <c r="D15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1170,8 +1230,11 @@
       <c r="D16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1184,8 +1247,11 @@
       <c r="D17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1198,8 +1264,11 @@
       <c r="D18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1212,8 +1281,11 @@
       <c r="D19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1226,8 +1298,11 @@
       <c r="D20" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1240,8 +1315,11 @@
       <c r="D21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -1254,8 +1332,11 @@
       <c r="D22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1268,8 +1349,11 @@
       <c r="D23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1282,8 +1366,11 @@
       <c r="D24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1296,8 +1383,11 @@
       <c r="D25" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1310,8 +1400,11 @@
       <c r="D26" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1417,11 @@
       <c r="D27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1338,8 +1434,11 @@
       <c r="D28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1352,8 +1451,11 @@
       <c r="D29" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1472,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1486,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1500,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1412,7 +1514,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1528,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1542,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +1556,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1468,7 +1570,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1482,7 +1584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1496,7 +1598,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1510,7 +1612,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1524,7 +1626,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1538,7 +1640,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1552,7 +1654,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1566,7 +1668,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1580,7 +1682,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1594,7 +1696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1608,7 +1710,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1622,7 +1724,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1636,7 +1738,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1650,7 +1752,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1664,7 +1766,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1678,7 +1780,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1692,7 +1794,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1706,7 +1808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1720,7 +1822,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1734,7 +1836,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1748,7 +1850,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1765,7 +1867,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1779,7 +1881,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1793,7 +1895,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1807,7 +1909,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1821,7 +1923,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1835,7 +1937,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1849,7 +1951,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1863,7 +1965,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1877,7 +1979,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1891,7 +1993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1905,7 +2007,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1919,7 +2021,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1933,7 +2035,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1947,7 +2049,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1961,7 +2063,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1975,7 +2077,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1989,7 +2091,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2003,7 +2105,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2017,7 +2119,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2031,7 +2133,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2045,7 +2147,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2059,7 +2161,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2073,7 +2175,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2087,7 +2189,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2101,7 +2203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2115,7 +2217,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2129,7 +2231,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2143,7 +2245,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2151,7 +2253,7 @@
         <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="D86" t="s">
         <v>116</v>
@@ -2160,13 +2262,16 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>114</v>
       </c>
+      <c r="C87" t="s">
+        <v>159</v>
+      </c>
       <c r="D87" t="s">
         <v>116</v>
       </c>
@@ -2174,13 +2279,16 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>114</v>
       </c>
+      <c r="C88" t="s">
+        <v>126</v>
+      </c>
       <c r="D88" t="s">
         <v>116</v>
       </c>
@@ -2188,13 +2296,16 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>114</v>
       </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
       <c r="D89" t="s">
         <v>116</v>
       </c>
@@ -2202,13 +2313,16 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>114</v>
       </c>
+      <c r="C90" t="s">
+        <v>137</v>
+      </c>
       <c r="D90" t="s">
         <v>116</v>
       </c>
@@ -2216,13 +2330,16 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>114</v>
       </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
       <c r="D91" t="s">
         <v>116</v>
       </c>
@@ -2230,13 +2347,16 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>114</v>
       </c>
+      <c r="C92" t="s">
+        <v>175</v>
+      </c>
       <c r="D92" t="s">
         <v>116</v>
       </c>
@@ -2244,13 +2364,16 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>114</v>
       </c>
+      <c r="C93" t="s">
+        <v>129</v>
+      </c>
       <c r="D93" t="s">
         <v>116</v>
       </c>
@@ -2258,13 +2381,16 @@
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>114</v>
       </c>
+      <c r="C94" t="s">
+        <v>168</v>
+      </c>
       <c r="D94" t="s">
         <v>116</v>
       </c>
@@ -2272,13 +2398,16 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>114</v>
       </c>
+      <c r="C95" t="s">
+        <v>153</v>
+      </c>
       <c r="D95" t="s">
         <v>116</v>
       </c>
@@ -2286,13 +2415,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>114</v>
       </c>
+      <c r="C96" t="s">
+        <v>139</v>
+      </c>
       <c r="D96" t="s">
         <v>116</v>
       </c>
@@ -2300,13 +2432,16 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>114</v>
       </c>
+      <c r="C97" t="s">
+        <v>163</v>
+      </c>
       <c r="D97" t="s">
         <v>116</v>
       </c>
@@ -2314,13 +2449,16 @@
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>114</v>
       </c>
+      <c r="C98" t="s">
+        <v>139</v>
+      </c>
       <c r="D98" t="s">
         <v>116</v>
       </c>
@@ -2328,13 +2466,16 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>114</v>
       </c>
+      <c r="C99" t="s">
+        <v>125</v>
+      </c>
       <c r="D99" t="s">
         <v>116</v>
       </c>
@@ -2342,13 +2483,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>114</v>
       </c>
+      <c r="C100" t="s">
+        <v>178</v>
+      </c>
       <c r="D100" t="s">
         <v>116</v>
       </c>
@@ -2356,13 +2500,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>114</v>
       </c>
+      <c r="C101" t="s">
+        <v>159</v>
+      </c>
       <c r="D101" t="s">
         <v>116</v>
       </c>
@@ -2370,13 +2517,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>114</v>
       </c>
+      <c r="C102" t="s">
+        <v>179</v>
+      </c>
       <c r="D102" t="s">
         <v>116</v>
       </c>
@@ -2384,13 +2534,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>114</v>
       </c>
+      <c r="C103" t="s">
+        <v>159</v>
+      </c>
       <c r="D103" t="s">
         <v>116</v>
       </c>
@@ -2398,13 +2551,16 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>114</v>
       </c>
+      <c r="C104" t="s">
+        <v>123</v>
+      </c>
       <c r="D104" t="s">
         <v>116</v>
       </c>
@@ -2412,13 +2568,16 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>114</v>
       </c>
+      <c r="C105" t="s">
+        <v>159</v>
+      </c>
       <c r="D105" t="s">
         <v>116</v>
       </c>
@@ -2426,13 +2585,16 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>114</v>
       </c>
+      <c r="C106" t="s">
+        <v>155</v>
+      </c>
       <c r="D106" t="s">
         <v>116</v>
       </c>
@@ -2440,13 +2602,16 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
       </c>
+      <c r="C107" t="s">
+        <v>137</v>
+      </c>
       <c r="D107" t="s">
         <v>116</v>
       </c>
@@ -2454,13 +2619,16 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>114</v>
       </c>
+      <c r="C108" t="s">
+        <v>153</v>
+      </c>
       <c r="D108" t="s">
         <v>116</v>
       </c>
@@ -2468,13 +2636,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
       </c>
+      <c r="C109" t="s">
+        <v>155</v>
+      </c>
       <c r="D109" t="s">
         <v>116</v>
       </c>
@@ -2482,13 +2653,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
       </c>
+      <c r="C110" t="s">
+        <v>123</v>
+      </c>
       <c r="D110" t="s">
         <v>116</v>
       </c>
@@ -2496,13 +2670,16 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>114</v>
       </c>
+      <c r="C111" t="s">
+        <v>177</v>
+      </c>
       <c r="D111" t="s">
         <v>116</v>
       </c>
@@ -2510,13 +2687,16 @@
         <v>172</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
       </c>
+      <c r="C112" t="s">
+        <v>157</v>
+      </c>
       <c r="D112" t="s">
         <v>116</v>
       </c>
@@ -2524,13 +2704,16 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
+      <c r="C113" t="s">
+        <v>162</v>
+      </c>
       <c r="D113" t="s">
         <v>116</v>
       </c>
@@ -2538,12 +2721,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>139</v>
       </c>
       <c r="D114" t="s">
         <v>116</v>

--- a/okapi_annotation_scores.xlsx
+++ b/okapi_annotation_scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ituniversity-my.sharepoint.com/personal/idas_itu_dk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminebenmessaoud/Library/CloudStorage/OneDrive-ITU/Projects in Data Science/Github/Okapi/ProjectsinDataScience2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D292A39-0E53-401B-A9F5-09DA54202C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D2F45-9EF8-024B-8687-B248A0959B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1860" windowWidth="17280" windowHeight="8964" xr2:uid="{9C4BEEDA-5338-44B3-A977-4AE6DB12A241}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{9C4BEEDA-5338-44B3-A977-4AE6DB12A241}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="185">
   <si>
     <t>image_id</t>
   </si>
@@ -582,13 +582,22 @@
   </si>
   <si>
     <t>PAT_2159_4792_718</t>
+  </si>
+  <si>
+    <t>annotator 3</t>
+  </si>
+  <si>
+    <t>Yasmine</t>
+  </si>
+  <si>
+    <t>annotator 3 agreement-scores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,22 +962,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8887C438-770E-4A0F-9D3E-5C85B6160971}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="8" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,8 +995,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1001,8 +1018,14 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1018,8 +1041,14 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1035,8 +1064,14 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1052,8 +1087,14 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1069,8 +1110,14 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1086,8 +1133,14 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1103,8 +1156,14 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1120,8 +1179,14 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1137,8 +1202,14 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1154,8 +1225,14 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1171,8 +1248,14 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1188,8 +1271,14 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1205,8 +1294,14 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1222,8 +1317,14 @@
       <c r="E15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1239,8 +1340,14 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1256,8 +1363,14 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1273,8 +1386,14 @@
       <c r="E18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1290,8 +1409,14 @@
       <c r="E19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1307,8 +1432,14 @@
       <c r="E20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1324,8 +1455,14 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1341,8 +1478,14 @@
       <c r="E22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1358,8 +1501,14 @@
       <c r="E23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1375,8 +1524,14 @@
       <c r="E24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1392,8 +1547,14 @@
       <c r="E25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1409,8 +1570,14 @@
       <c r="E26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1426,8 +1593,14 @@
       <c r="E27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1443,8 +1616,14 @@
       <c r="E28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1460,8 +1639,14 @@
       <c r="E29" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1477,8 +1662,14 @@
       <c r="E30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1494,8 +1685,14 @@
       <c r="E31" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1511,8 +1708,14 @@
       <c r="E32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1528,8 +1731,14 @@
       <c r="E33" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -1545,8 +1754,14 @@
       <c r="E34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1562,8 +1777,14 @@
       <c r="E35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -1579,8 +1800,14 @@
       <c r="E36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1596,8 +1823,14 @@
       <c r="E37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1613,8 +1846,14 @@
       <c r="E38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1630,8 +1869,14 @@
       <c r="E39" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1647,8 +1892,14 @@
       <c r="E40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -1664,8 +1915,14 @@
       <c r="E41" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -1681,8 +1938,14 @@
       <c r="E42" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -1698,8 +1961,14 @@
       <c r="E43" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -1715,8 +1984,14 @@
       <c r="E44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -1732,8 +2007,14 @@
       <c r="E45" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -1749,8 +2030,14 @@
       <c r="E46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -1766,8 +2053,14 @@
       <c r="E47" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -1783,8 +2076,14 @@
       <c r="E48" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -1800,8 +2099,14 @@
       <c r="E49" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1817,8 +2122,14 @@
       <c r="E50" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -1834,8 +2145,14 @@
       <c r="E51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -1851,8 +2168,14 @@
       <c r="E52" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -1868,8 +2191,14 @@
       <c r="E53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -1885,8 +2214,14 @@
       <c r="E54" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -1902,8 +2237,14 @@
       <c r="E55" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -1919,8 +2260,14 @@
       <c r="E56" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="s">
+        <v>183</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -1936,8 +2283,14 @@
       <c r="E57" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="s">
+        <v>183</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -1953,8 +2306,14 @@
       <c r="E58" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -1970,8 +2329,14 @@
       <c r="E59" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -1987,8 +2352,14 @@
       <c r="E60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -2004,8 +2375,14 @@
       <c r="E61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>183</v>
+      </c>
+      <c r="G61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -2021,8 +2398,14 @@
       <c r="E62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>183</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>115</v>
       </c>
@@ -2038,8 +2421,14 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>183</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -2055,8 +2444,14 @@
       <c r="E64" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -2072,8 +2467,14 @@
       <c r="E65" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>183</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -2089,8 +2490,14 @@
       <c r="E66" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>183</v>
+      </c>
+      <c r="G66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -2106,8 +2513,14 @@
       <c r="E67" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" t="s">
+        <v>183</v>
+      </c>
+      <c r="G67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -2123,8 +2536,14 @@
       <c r="E68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -2140,8 +2559,14 @@
       <c r="E69" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" t="s">
+        <v>183</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -2157,8 +2582,14 @@
       <c r="E70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>183</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -2174,8 +2605,14 @@
       <c r="E71" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>183</v>
+      </c>
+      <c r="G71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -2191,8 +2628,14 @@
       <c r="E72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" t="s">
+        <v>183</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -2208,8 +2651,14 @@
       <c r="E73" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>183</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -2225,8 +2674,14 @@
       <c r="E74" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>132</v>
       </c>
@@ -2242,8 +2697,14 @@
       <c r="E75" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" t="s">
+        <v>183</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -2259,8 +2720,14 @@
       <c r="E76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>183</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>134</v>
       </c>
@@ -2276,8 +2743,14 @@
       <c r="E77" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" t="s">
+        <v>183</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -2293,8 +2766,14 @@
       <c r="E78" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" t="s">
+        <v>183</v>
+      </c>
+      <c r="G78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>137</v>
       </c>
@@ -2310,8 +2789,14 @@
       <c r="E79" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>183</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -2327,8 +2812,14 @@
       <c r="E80" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="s">
+        <v>183</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -2344,8 +2835,14 @@
       <c r="E81" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -2361,8 +2858,14 @@
       <c r="E82" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -2378,8 +2881,14 @@
       <c r="E83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" t="s">
+        <v>183</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -2395,8 +2904,14 @@
       <c r="E84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" t="s">
+        <v>183</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -2412,8 +2927,14 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" t="s">
+        <v>183</v>
+      </c>
+      <c r="G85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>145</v>
       </c>
@@ -2429,8 +2950,14 @@
       <c r="E86" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="s">
+        <v>183</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>146</v>
       </c>
@@ -2446,8 +2973,14 @@
       <c r="E87" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" t="s">
+        <v>183</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>147</v>
       </c>
@@ -2463,8 +2996,14 @@
       <c r="E88" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" t="s">
+        <v>183</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>148</v>
       </c>
@@ -2480,8 +3019,14 @@
       <c r="E89" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="s">
+        <v>183</v>
+      </c>
+      <c r="G89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -2497,8 +3042,14 @@
       <c r="E90" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -2514,8 +3065,14 @@
       <c r="E91" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="s">
+        <v>183</v>
+      </c>
+      <c r="G91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -2531,8 +3088,14 @@
       <c r="E92" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" t="s">
+        <v>183</v>
+      </c>
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>154</v>
       </c>
@@ -2548,8 +3111,14 @@
       <c r="E93" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" t="s">
+        <v>183</v>
+      </c>
+      <c r="G93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -2565,8 +3134,14 @@
       <c r="E94" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" t="s">
+        <v>183</v>
+      </c>
+      <c r="G94" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>158</v>
       </c>
@@ -2582,8 +3157,14 @@
       <c r="E95" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="s">
+        <v>183</v>
+      </c>
+      <c r="G95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>159</v>
       </c>
@@ -2599,8 +3180,14 @@
       <c r="E96" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" t="s">
+        <v>183</v>
+      </c>
+      <c r="G96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>161</v>
       </c>
@@ -2616,8 +3203,14 @@
       <c r="E97" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" t="s">
+        <v>183</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>162</v>
       </c>
@@ -2633,8 +3226,14 @@
       <c r="E98" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" t="s">
+        <v>183</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>163</v>
       </c>
@@ -2650,8 +3249,14 @@
       <c r="E99" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" t="s">
+        <v>183</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -2667,8 +3272,14 @@
       <c r="E100" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" t="s">
+        <v>183</v>
+      </c>
+      <c r="G100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -2684,8 +3295,14 @@
       <c r="E101" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" t="s">
+        <v>183</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>167</v>
       </c>
@@ -2701,8 +3318,14 @@
       <c r="E102" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" t="s">
+        <v>183</v>
+      </c>
+      <c r="G102" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>170</v>
       </c>
@@ -2718,8 +3341,14 @@
       <c r="E103" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" t="s">
+        <v>183</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>171</v>
       </c>
@@ -2735,8 +3364,14 @@
       <c r="E104" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" t="s">
+        <v>183</v>
+      </c>
+      <c r="G104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>172</v>
       </c>
@@ -2752,8 +3387,14 @@
       <c r="E105" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" t="s">
+        <v>183</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>173</v>
       </c>
@@ -2769,8 +3410,14 @@
       <c r="E106" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" t="s">
+        <v>183</v>
+      </c>
+      <c r="G106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>174</v>
       </c>
@@ -2786,8 +3433,14 @@
       <c r="E107" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" t="s">
+        <v>183</v>
+      </c>
+      <c r="G107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>175</v>
       </c>
@@ -2803,8 +3456,14 @@
       <c r="E108" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" t="s">
+        <v>183</v>
+      </c>
+      <c r="G108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -2820,8 +3479,14 @@
       <c r="E109" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" t="s">
+        <v>183</v>
+      </c>
+      <c r="G109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>177</v>
       </c>
@@ -2837,8 +3502,14 @@
       <c r="E110" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" t="s">
+        <v>183</v>
+      </c>
+      <c r="G110" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>178</v>
       </c>
@@ -2854,8 +3525,14 @@
       <c r="E111" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" t="s">
+        <v>183</v>
+      </c>
+      <c r="G111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -2871,8 +3548,14 @@
       <c r="E112" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" t="s">
+        <v>183</v>
+      </c>
+      <c r="G112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>180</v>
       </c>
@@ -2888,8 +3571,14 @@
       <c r="E113" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" t="s">
+        <v>183</v>
+      </c>
+      <c r="G113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>181</v>
       </c>
@@ -2903,6 +3592,12 @@
         <v>110</v>
       </c>
       <c r="E114" t="s">
+        <v>136</v>
+      </c>
+      <c r="F114" t="s">
+        <v>183</v>
+      </c>
+      <c r="G114" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2913,23 +3608,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cee8e6a1-b45e-4447-84bd-05603a71121e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E66DD963F24B2248AA5B3BA27CE1D4AF" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3e7f1cfb47299e140ad1cbf75b14e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cee8e6a1-b45e-4447-84bd-05603a71121e" xmlns:ns4="c9de5e97-094a-499d-9348-18672c3b4ad7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="006c05c0bd7bee21f2832a32e68f84b4" ns3:_="" ns4:_="">
     <xsd:import namespace="cee8e6a1-b45e-4447-84bd-05603a71121e"/>
@@ -3118,14 +3796,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cee8e6a1-b45e-4447-84bd-05603a71121e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6F4CADD-D3B1-41F7-8882-F646E0E2B966}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59152EA4-B539-4EA9-94A7-5CE28412F58A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cee8e6a1-b45e-4447-84bd-05603a71121e"/>
+    <ds:schemaRef ds:uri="c9de5e97-094a-499d-9348-18672c3b4ad7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B18BA688-A7FA-4BD0-82DE-67E17BD853E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B18BA688-A7FA-4BD0-82DE-67E17BD853E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59152EA4-B539-4EA9-94A7-5CE28412F58A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6F4CADD-D3B1-41F7-8882-F646E0E2B966}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cee8e6a1-b45e-4447-84bd-05603a71121e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/okapi_annotation_scores.xlsx
+++ b/okapi_annotation_scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminebenmessaoud/Library/CloudStorage/OneDrive-ITU/Projects in Data Science/Github/Okapi/ProjectsinDataScience2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke0\OneDrive\Documents\GitHub\ProjectsinDataScience2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D2F45-9EF8-024B-8687-B248A0959B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9317CE-43CD-4CC9-B0BC-8D8828403E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{9C4BEEDA-5338-44B3-A977-4AE6DB12A241}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9C4BEEDA-5338-44B3-A977-4AE6DB12A241}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -964,22 +964,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8887C438-770E-4A0F-9D3E-5C85B6160971}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="8" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="8" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>115</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>132</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>134</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>137</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>145</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>146</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>147</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>148</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>154</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>158</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>159</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>161</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>162</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>163</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>167</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>170</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>171</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>172</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>173</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>174</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>175</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>177</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>178</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>180</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>181</v>
       </c>
@@ -3608,6 +3608,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E66DD963F24B2248AA5B3BA27CE1D4AF" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3e7f1cfb47299e140ad1cbf75b14e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cee8e6a1-b45e-4447-84bd-05603a71121e" xmlns:ns4="c9de5e97-094a-499d-9348-18672c3b4ad7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="006c05c0bd7bee21f2832a32e68f84b4" ns3:_="" ns4:_="">
     <xsd:import namespace="cee8e6a1-b45e-4447-84bd-05603a71121e"/>
@@ -3796,15 +3805,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3814,6 +3814,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B18BA688-A7FA-4BD0-82DE-67E17BD853E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59152EA4-B539-4EA9-94A7-5CE28412F58A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3832,14 +3840,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B18BA688-A7FA-4BD0-82DE-67E17BD853E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6F4CADD-D3B1-41F7-8882-F646E0E2B966}">
   <ds:schemaRefs>
